--- a/12 - Logistic Regression/12-Logistic-Regression.xlsx
+++ b/12 - Logistic Regression/12-Logistic-Regression.xlsx
@@ -1,69 +1,83 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Google Drive\Mai\Teaching\Courses\LM7204-BizForecasting\Excel-R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\business-forecasting\12 - Logistic Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD3D4DB-FFB7-453F-9FF6-2BB4C750020E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14880" windowHeight="7035" activeTab="2"/>
+    <workbookView xWindow="615" yWindow="3180" windowWidth="20445" windowHeight="13080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="odds" sheetId="3" r:id="rId1"/>
-    <sheet name="bidding" sheetId="4" r:id="rId2"/>
-    <sheet name="LateLSP" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="bidding" sheetId="4" r:id="rId3"/>
+    <sheet name="LateLSP" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">bidding!$AB$1:$AB$2</definedName>
-    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">bidding!$AE$2:$AE$201</definedName>
-    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">bidding!$AB$4</definedName>
-    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">bidding!$AB$1:$AB$2</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">bidding!$AE$2:$AE$201</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">bidding!$AB$4</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -93,12 +107,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -127,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="28">
   <si>
     <t>BiddingResult</t>
   </si>
@@ -200,11 +214,23 @@
   <si>
     <t>LSPRank</t>
   </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Average of Price</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -259,7 +285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -269,6 +295,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -357,7 +388,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1658,7 +1688,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1763,7 +1792,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4466,7 +4494,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4571,7 +4598,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4652,7 +4678,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4759,7 +4784,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6833,7 +6857,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6863,7 +6893,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6893,7 +6929,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6909,6 +6951,976 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Tanat Iempreedee" refreshedDate="44394.389586574071" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="201" xr:uid="{4A7CCD3E-C84B-4004-B7A8-58D50C862A82}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:B1048576" sheet="bidding"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="BiddingResult" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="3">
+        <n v="1"/>
+        <n v="0"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Price" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="33" maxValue="75" count="41">
+        <n v="41"/>
+        <n v="53"/>
+        <n v="54"/>
+        <n v="47"/>
+        <n v="57"/>
+        <n v="51"/>
+        <n v="42"/>
+        <n v="45"/>
+        <n v="52"/>
+        <n v="71"/>
+        <n v="50"/>
+        <n v="43"/>
+        <n v="60"/>
+        <n v="62"/>
+        <n v="35"/>
+        <n v="75"/>
+        <n v="46"/>
+        <n v="66"/>
+        <n v="49"/>
+        <n v="64"/>
+        <n v="63"/>
+        <n v="58"/>
+        <n v="68"/>
+        <n v="44"/>
+        <n v="40"/>
+        <n v="48"/>
+        <n v="39"/>
+        <n v="70"/>
+        <n v="59"/>
+        <n v="61"/>
+        <n v="38"/>
+        <n v="73"/>
+        <n v="55"/>
+        <n v="56"/>
+        <n v="65"/>
+        <n v="72"/>
+        <n v="69"/>
+        <n v="67"/>
+        <n v="37"/>
+        <n v="33"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="201">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="40"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{494E70D9-2886-41D2-B975-0E02EA4DCDE5}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="42">
+        <item x="39"/>
+        <item x="14"/>
+        <item x="38"/>
+        <item x="30"/>
+        <item x="26"/>
+        <item x="24"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="11"/>
+        <item x="23"/>
+        <item x="7"/>
+        <item x="16"/>
+        <item x="3"/>
+        <item x="25"/>
+        <item x="18"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="4"/>
+        <item x="21"/>
+        <item x="28"/>
+        <item x="12"/>
+        <item x="29"/>
+        <item x="13"/>
+        <item x="20"/>
+        <item x="19"/>
+        <item x="34"/>
+        <item x="17"/>
+        <item x="37"/>
+        <item x="22"/>
+        <item x="36"/>
+        <item x="27"/>
+        <item x="9"/>
+        <item x="35"/>
+        <item x="31"/>
+        <item x="15"/>
+        <item x="40"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Price" fld="1" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7173,7 +8185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7397,11 +8409,71 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C6F346-65FF-41EE-AAAD-E06732C45AD3}">
+  <dimension ref="A3:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="41" width="3" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9">
+        <v>60.938775510204081</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9">
+        <v>49.953642384105962</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="9"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="9">
+        <v>52.645000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI201"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16704,11 +17776,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -22335,6 +23407,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AF6D9EDA35E42B4B8BA68358CD6B4667" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1c2d3313f571f159a984235e0da85421">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d47f257c-f9b4-4a78-89eb-782bf7388d0d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="64fa7c12d726f85c4b96a9ad3b163f70" ns2:_="">
     <xsd:import namespace="d47f257c-f9b4-4a78-89eb-782bf7388d0d"/>
@@ -22466,7 +23544,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -22475,20 +23553,37 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2759DC8-06B9-4684-89A0-31C03640CA68}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D69F7E0-D777-4723-980C-BCEA40107996}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E09F65B-B627-4D7A-8C08-A08DF09E8BB5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2759DC8-06B9-4684-89A0-31C03640CA68}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d47f257c-f9b4-4a78-89eb-782bf7388d0d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D69F7E0-D777-4723-980C-BCEA40107996}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E09F65B-B627-4D7A-8C08-A08DF09E8BB5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>